--- a/2nd_year/3_2_6/data.xlsx
+++ b/2nd_year/3_2_6/data.xlsx
@@ -2,15 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="A" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="B" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="C" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="B_Pure" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t xml:space="preserve">x, cm</t>
   </si>
@@ -33,6 +34,12 @@
     <t xml:space="preserve">d(x), cm</t>
   </si>
   <si>
+    <t xml:space="preserve">I,nA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dI,nA</t>
+  </si>
+  <si>
     <t xml:space="preserve">R_1/R_2 = 1/2000</t>
   </si>
   <si>
@@ -63,6 +70,12 @@
     <t xml:space="preserve">d(T_0),s</t>
   </si>
   <si>
+    <t xml:space="preserve">decriment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d(decr)</t>
+  </si>
+  <si>
     <t xml:space="preserve">R_krit = 9,2 kOhm</t>
   </si>
   <si>
@@ -78,7 +91,7 @@
     <t xml:space="preserve">(тут половина периода)</t>
   </si>
   <si>
-    <t xml:space="preserve">decriment</t>
+    <t xml:space="preserve">dR</t>
   </si>
   <si>
     <t xml:space="preserve">R=28kOm</t>
@@ -91,6 +104,15 @@
   </si>
   <si>
     <t xml:space="preserve">d(l)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dR,kOhm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/(R+R_0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d(1/(R+R_0))</t>
   </si>
   <si>
     <t xml:space="preserve">R_1/R_2 = 1/70</t>
@@ -106,9 +128,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -136,18 +160,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFA6A6"/>
-        <bgColor rgb="FFFFCC99"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -184,8 +202,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -193,11 +215,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -210,66 +240,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFFA6A6"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -281,12 +251,14 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -299,8 +271,14 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="J1" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -311,10 +289,18 @@
         <v>20</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>4</v>
+        <v>0.3</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <f aca="false">2.03/2/(475+1000*B2)*1000*1000</f>
+        <v>49.5726495726496</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <f aca="false">D2*SQRT((0.1/B2)^2+(1/203)^2)</f>
+        <v>0.347951072578857</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -325,10 +311,18 @@
         <v>22</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>5</v>
+        <v>0.3</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <f aca="false">2.03/2/(475+1000*B3)*1000*1000</f>
+        <v>45.1612903225806</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <f aca="false">D3*SQRT((0.1/B3)^2+(1/203)^2)</f>
+        <v>0.302707679248941</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -339,10 +333,18 @@
         <v>24</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>2.2</v>
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <f aca="false">2.03/2/(475+1000*B4)*1000*1000</f>
+        <v>41.4708886618999</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <f aca="false">D4*SQRT((0.1/B4)^2+(1/203)^2)</f>
+        <v>0.26756808732651</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -353,10 +355,18 @@
         <v>26</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>3.2</v>
+        <v>0.3</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <f aca="false">2.03/2/(475+1000*B5)*1000*1000</f>
+        <v>38.3380547686497</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <f aca="false">D5*SQRT((0.1/B5)^2+(1/203)^2)</f>
+        <v>0.239603466547687</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -367,7 +377,15 @@
         <v>28</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>4.2</v>
+        <v>0.3</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <f aca="false">2.03/2/(475+1000*B6)*1000*1000</f>
+        <v>35.6453028972783</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <f aca="false">D6*SQRT((0.1/B6)^2+(1/203)^2)</f>
+        <v>0.216885326199045</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -378,7 +396,15 @@
         <v>30</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>5.2</v>
+        <v>0.3</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <f aca="false">2.03/2/(475+1000*B7)*1000*1000</f>
+        <v>33.3059885151764</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <f aca="false">D7*SQRT((0.1/B7)^2+(1/203)^2)</f>
+        <v>0.198101082230862</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -389,7 +415,15 @@
         <v>32</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>6.2</v>
+        <v>0.3</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <f aca="false">2.03/2/(475+1000*B8)*1000*1000</f>
+        <v>31.2548113933795</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <f aca="false">D8*SQRT((0.1/B8)^2+(1/203)^2)</f>
+        <v>0.18233149600158</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -400,7 +434,15 @@
         <v>34</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>7.2</v>
+        <v>0.3</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <f aca="false">2.03/2/(475+1000*B9)*1000*1000</f>
+        <v>29.4416243654822</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <f aca="false">D9*SQRT((0.1/B9)^2+(1/203)^2)</f>
+        <v>0.168916589821067</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -411,7 +453,15 @@
         <v>36</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>8.2</v>
+        <v>0.3</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <f aca="false">2.03/2/(475+1000*B10)*1000*1000</f>
+        <v>27.8272789581905</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <f aca="false">D10*SQRT((0.1/B10)^2+(1/203)^2)</f>
+        <v>0.157372041263106</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -422,7 +472,15 @@
         <v>40</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>9.2</v>
+        <v>0.3</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <f aca="false">2.03/2/(475+1000*B11)*1000*1000</f>
+        <v>25.077208153181</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <f aca="false">D11*SQRT((0.1/B11)^2+(1/203)^2)</f>
+        <v>0.138530964169881</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -433,7 +491,15 @@
         <v>50</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>10.2</v>
+        <v>0.3</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <f aca="false">2.03/2/(475+1000*B12)*1000*1000</f>
+        <v>20.1089648340763</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <f aca="false">D12*SQRT((0.1/B12)^2+(1/203)^2)</f>
+        <v>0.10691190520449</v>
       </c>
     </row>
   </sheetData>
@@ -452,38 +518,46 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -506,31 +580,48 @@
       <c r="F2" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>3</v>
+      <c r="G2" s="4" t="n">
+        <f aca="false">LN(A2/B2)</f>
+        <v>0.306863131303625</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <f aca="false">G2*SQRT((C2/A2)^2+(C2/B2)^2)</f>
+        <v>0.00536579621717003</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>15</v>
-      </c>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J5" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -546,12 +637,19 @@
       <c r="D9" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="E9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="3" t="n">
         <f aca="false">2*LN(A9/B9)</f>
         <v>2.05503273396876</v>
       </c>
-      <c r="H9" s="0" t="s">
-        <v>19</v>
+      <c r="H9" s="6" t="n">
+        <f aca="false">G9*SQRT((C9/A9)^2+(C9/B9)^2)</f>
+        <v>0.128393026449357</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -567,12 +665,19 @@
       <c r="D10" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="E10" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="3" t="n">
         <f aca="false">2*LN(A10/B10)</f>
         <v>1.84336316101806</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>20</v>
+      <c r="H10" s="6" t="n">
+        <f aca="false">G10*SQRT((C10/A10)^2+(C10/B10)^2)</f>
+        <v>0.107237514790587</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -588,9 +693,16 @@
       <c r="D11" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="E11" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="3" t="n">
         <f aca="false">2*LN(A11/B11)</f>
         <v>1.74654669358093</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <f aca="false">G11*SQRT((C11/A11)^2+(C11/B11)^2)</f>
+        <v>0.0996162095631581</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -606,9 +718,16 @@
       <c r="D12" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="E12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="3" t="n">
         <f aca="false">2*LN(A12/B12)</f>
         <v>1.67950130950364</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <f aca="false">G12*SQRT((C12/A12)^2+(C12/B12)^2)</f>
+        <v>0.0962840981583339</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -624,9 +743,16 @@
       <c r="D13" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="E13" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="3" t="n">
         <f aca="false">2*LN(A13/B13)</f>
         <v>1.55817922072134</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <f aca="false">G13*SQRT((C13/A13)^2+(C13/B13)^2)</f>
+        <v>0.0879161391836013</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -642,9 +768,16 @@
       <c r="D14" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="E14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="3" t="n">
         <f aca="false">2*LN(A14/B14)</f>
         <v>1.43567958630063</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <f aca="false">G14*SQRT((C14/A14)^2+(C14/B14)^2)</f>
+        <v>0.0798692696243957</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -660,9 +793,16 @@
       <c r="D15" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="E15" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="3" t="n">
         <f aca="false">2*LN(A15/B15)</f>
         <v>1.41177241267475</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <f aca="false">G15*SQRT((C15/A15)^2+(C15/B15)^2)</f>
+        <v>0.080740197550015</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -678,9 +818,16 @@
       <c r="D16" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="E16" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="3" t="n">
         <f aca="false">2*LN(A16/B16)</f>
         <v>1.33434338831337</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <f aca="false">G16*SQRT((C16/A16)^2+(C16/B16)^2)</f>
+        <v>0.0769115524314988</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -696,9 +843,16 @@
       <c r="D17" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="G17" s="2" t="n">
+      <c r="E17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="3" t="n">
         <f aca="false">2*LN(A17/B17)</f>
         <v>1.22620894577282</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <f aca="false">G17*SQRT((C17/A17)^2+(C17/B17)^2)</f>
+        <v>0.0715149375096694</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -714,9 +868,16 @@
       <c r="D18" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="E18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="3" t="n">
         <f aca="false">2*LN(A18/B18)</f>
         <v>1.22181816464595</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <f aca="false">G18*SQRT((C18/A18)^2+(C18/B18)^2)</f>
+        <v>0.0731705843942739</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -732,9 +893,16 @@
       <c r="D19" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="G19" s="2" t="n">
+      <c r="E19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="3" t="n">
         <f aca="false">2*LN(A19/B19)</f>
         <v>1.16384309089944</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <f aca="false">G19*SQRT((C19/A19)^2+(C19/B19)^2)</f>
+        <v>0.0701705216597188</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -750,9 +918,16 @@
       <c r="D20" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="G20" s="2" t="n">
+      <c r="E20" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="3" t="n">
         <f aca="false">2*LN(A20/B20)</f>
         <v>1.04259384726657</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <f aca="false">G20*SQRT((C20/A20)^2+(C20/B20)^2)</f>
+        <v>0.0638170118563828</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -768,9 +943,16 @@
       <c r="D21" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="E21" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="3" t="n">
         <f aca="false">2*LN(A21/B21)</f>
         <v>0.988037010899219</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <f aca="false">G21*SQRT((C21/A21)^2+(C21/B21)^2)</f>
+        <v>0.0643022718311539</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -786,9 +968,16 @@
       <c r="D22" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="G22" s="2" t="n">
+      <c r="E22" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="3" t="n">
         <f aca="false">2*LN(A22/B22)</f>
         <v>0.925247043896226</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <f aca="false">G22*SQRT((C22/A22)^2+(C22/B22)^2)</f>
+        <v>0.0643159826957384</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -804,9 +993,16 @@
       <c r="D23" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="G23" s="2" t="n">
+      <c r="E23" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G23" s="3" t="n">
         <f aca="false">2*LN(A23/B23)</f>
         <v>0.971015631563402</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <f aca="false">G23*SQRT((C23/A23)^2+(C23/B23)^2)</f>
+        <v>0.0712591843258739</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -822,18 +1018,59 @@
       <c r="D24" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="G24" s="2" t="n">
+      <c r="E24" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G24" s="3" t="n">
         <f aca="false">2*LN(A24/B24)</f>
         <v>0.915666187250961</v>
       </c>
+      <c r="H24" s="6" t="n">
+        <f aca="false">G24*SQRT((C24/A24)^2+(C24/B24)^2)</f>
+        <v>0.0699050021926104</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G25" s="2"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H36" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Page &amp;P</oddFooter>
@@ -846,10 +1083,609 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="4" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <f aca="false">1/(B5+0.475)</f>
+        <v>0.0646203554119548</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <f aca="false">E5*D5/B5</f>
+        <v>0.000430802369413032</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <f aca="false">1/(B6+0.475)</f>
+        <v>0.0646203554119548</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <f aca="false">E6*D6/B6</f>
+        <v>0.000430802369413032</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <f aca="false">1/(B7+0.475)</f>
+        <v>0.0801603206412826</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <f aca="false">E7*D7/B7</f>
+        <v>0.000668002672010688</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <f aca="false">1/(B8+0.475)</f>
+        <v>0.0801603206412826</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <f aca="false">E8*D8/B8</f>
+        <v>0.000668002672010688</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <f aca="false">1/(B9+0.475)</f>
+        <v>0.0801603206412826</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <f aca="false">E9*D9/B9</f>
+        <v>0.000668002672010688</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <f aca="false">1/(B10+0.475)</f>
+        <v>0.105540897097625</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <f aca="false">E10*D10/B10</f>
+        <v>0.00117267663441806</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <f aca="false">1/(B11+0.475)</f>
+        <v>0.105540897097625</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <f aca="false">E11*D11/B11</f>
+        <v>0.00117267663441806</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <f aca="false">1/(B12+0.475)</f>
+        <v>0.133779264214047</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <f aca="false">E12*D12/B12</f>
+        <v>0.00191113234591495</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <f aca="false">1/(B13+0.475)</f>
+        <v>0.133779264214047</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <f aca="false">E13*D13/B13</f>
+        <v>0.00191113234591495</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <f aca="false">1/(B14+0.475)</f>
+        <v>0.182648401826484</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <f aca="false">E14*D14/B14</f>
+        <v>0.00365296803652968</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <f aca="false">1/(B15+0.475)</f>
+        <v>0.182648401826484</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <f aca="false">E15*D15/B15</f>
+        <v>0.00365296803652968</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <f aca="false">1/(B16+0.475)</f>
+        <v>0.223463687150838</v>
+      </c>
+      <c r="F16" s="4" t="n">
+        <f aca="false">E16*D16/B16</f>
+        <v>0.00558659217877095</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <f aca="false">1/(B17+0.475)</f>
+        <v>0.223463687150838</v>
+      </c>
+      <c r="F17" s="4" t="n">
+        <f aca="false">E17*D17/B17</f>
+        <v>0.00558659217877095</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <f aca="false">1/(B18+0.475)</f>
+        <v>0.287769784172662</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <f aca="false">E18*D18/B18</f>
+        <v>0.00959232613908873</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <f aca="false">1/(B19+0.475)</f>
+        <v>0.287769784172662</v>
+      </c>
+      <c r="F19" s="4" t="n">
+        <f aca="false">E19*D19/B19</f>
+        <v>0.00959232613908873</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <f aca="false">1/(B20+0.475)</f>
+        <v>0.287769784172662</v>
+      </c>
+      <c r="F20" s="4" t="n">
+        <f aca="false">E20*D20/B20</f>
+        <v>0.00959232613908873</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <f aca="false">1/(B21+0.475)</f>
+        <v>0.0392541707556428</v>
+      </c>
+      <c r="F21" s="4" t="n">
+        <f aca="false">E21*D21/B21</f>
+        <v>0.000157016683022571</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <f aca="false">1/(B22+0.475)</f>
+        <v>0.0392541707556428</v>
+      </c>
+      <c r="F22" s="4" t="n">
+        <f aca="false">E22*D22/B22</f>
+        <v>0.000157016683022571</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <f aca="false">1/(B23+0.475)</f>
+        <v>0.0392541707556428</v>
+      </c>
+      <c r="F23" s="4" t="n">
+        <f aca="false">E23*D23/B23</f>
+        <v>0.000157016683022571</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <f aca="false">1/(B24+0.475)</f>
+        <v>0.0247066090179123</v>
+      </c>
+      <c r="F24" s="4" t="n">
+        <f aca="false">E24*D24/B24</f>
+        <v>6.17665225447807E-005</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <f aca="false">1/(B25+0.475)</f>
+        <v>0.0247066090179123</v>
+      </c>
+      <c r="F25" s="4" t="n">
+        <f aca="false">E25*D25/B25</f>
+        <v>6.17665225447807E-005</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <f aca="false">1/(B26+0.475)</f>
+        <v>0.0247066090179123</v>
+      </c>
+      <c r="F26" s="4" t="n">
+        <f aca="false">E26*D26/B26</f>
+        <v>6.17665225447807E-005</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -859,380 +1695,447 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
+      <c r="G1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>24</v>
+        <v>9.5</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>3.4</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>25</v>
+      <c r="D2" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <f aca="false">2*LN(A2/B2)</f>
+        <v>2.05503273396876</v>
+      </c>
+      <c r="H2" s="6" t="n">
+        <f aca="false">G2*SQRT((C2/A2)^2+(C2/B2)^2)</f>
+        <v>0.128393026449357</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>50</v>
+      <c r="A3" s="0" t="n">
+        <v>9.3</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <f aca="false">2*LN(A3/B3)</f>
+        <v>1.84336316101806</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <f aca="false">G3*SQRT((C3/A3)^2+(C3/B3)^2)</f>
+        <v>0.107237514790587</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>45</v>
+      <c r="A4" s="0" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <f aca="false">2*LN(A4/B4)</f>
+        <v>1.74654669358093</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <f aca="false">G4*SQRT((C4/A4)^2+(C4/B4)^2)</f>
+        <v>0.0996162095631581</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>50</v>
+      <c r="A5" s="0" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <f aca="false">2*LN(A5/B5)</f>
+        <v>1.67950130950364</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <f aca="false">G5*SQRT((C5/A5)^2+(C5/B5)^2)</f>
+        <v>0.0962840981583339</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>50</v>
+      <c r="A6" s="0" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <f aca="false">2*LN(A6/B6)</f>
+        <v>1.55817922072134</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <f aca="false">G6*SQRT((C6/A6)^2+(C6/B6)^2)</f>
+        <v>0.0879161391836013</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>50</v>
+      <c r="A7" s="0" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <f aca="false">2*LN(A7/B7)</f>
+        <v>1.43567958630063</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <f aca="false">G7*SQRT((C7/A7)^2+(C7/B7)^2)</f>
+        <v>0.0798692696243957</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>45</v>
+      <c r="A8" s="0" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <f aca="false">2*LN(A8/B8)</f>
+        <v>1.41177241267475</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <f aca="false">G8*SQRT((C8/A8)^2+(C8/B8)^2)</f>
+        <v>0.080740197550015</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>45</v>
+      <c r="A9" s="0" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <f aca="false">2*LN(A9/B9)</f>
+        <v>1.33434338831337</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <f aca="false">G9*SQRT((C9/A9)^2+(C9/B9)^2)</f>
+        <v>0.0769115524314988</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>40</v>
+      <c r="A10" s="0" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <f aca="false">2*LN(A10/B10)</f>
+        <v>1.22620894577282</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <f aca="false">G10*SQRT((C10/A10)^2+(C10/B10)^2)</f>
+        <v>0.0715149375096694</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="B11" s="3" t="n">
-        <v>40</v>
+      <c r="A11" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <f aca="false">2*LN(A11/B11)</f>
+        <v>1.22181816464595</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <f aca="false">G11*SQRT((C11/A11)^2+(C11/B11)^2)</f>
+        <v>0.0731705843942739</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="B12" s="3" t="n">
-        <v>40</v>
+      <c r="A12" s="0" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <f aca="false">2*LN(A12/B12)</f>
+        <v>1.16384309089944</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <f aca="false">G12*SQRT((C12/A12)^2+(C12/B12)^2)</f>
+        <v>0.0701705216597188</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="B13" s="3" t="n">
-        <v>40</v>
+      <c r="A13" s="0" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <f aca="false">2*LN(A13/B13)</f>
+        <v>1.04259384726657</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <f aca="false">G13*SQRT((C13/A13)^2+(C13/B13)^2)</f>
+        <v>0.0638170118563828</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="B14" s="3" t="n">
-        <v>35</v>
+      <c r="A14" s="0" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <f aca="false">2*LN(A14/B14)</f>
+        <v>0.988037010899219</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <f aca="false">G14*SQRT((C14/A14)^2+(C14/B14)^2)</f>
+        <v>0.0643022718311539</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="B15" s="3" t="n">
-        <v>35</v>
+      <c r="A15" s="0" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <f aca="false">2*LN(A15/B15)</f>
+        <v>0.925247043896226</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <f aca="false">G15*SQRT((C15/A15)^2+(C15/B15)^2)</f>
+        <v>0.0643159826957384</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="B16" s="3" t="n">
-        <v>35</v>
+      <c r="A16" s="0" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <f aca="false">2*LN(A16/B16)</f>
+        <v>0.971015631563402</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <f aca="false">G16*SQRT((C16/A16)^2+(C16/B16)^2)</f>
+        <v>0.0712591843258739</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="n">
-        <v>35</v>
+      <c r="A17" s="0" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <f aca="false">2*LN(A17/B17)</f>
+        <v>0.915666187250961</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <f aca="false">G17*SQRT((C17/A17)^2+(C17/B17)^2)</f>
+        <v>0.0699050021926104</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="B18" s="3" t="n">
-        <v>20</v>
-      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="B19" s="3" t="n">
-        <v>20</v>
-      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="B20" s="3" t="n">
-        <v>15</v>
-      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="B21" s="3" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>40</v>
-      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Page &amp;P</oddFooter>
